--- a/3.Datasheet/数据交互协议格式.xlsx
+++ b/3.Datasheet/数据交互协议格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39810\Desktop\DIY_Project\STM32H743II_PCB\3.Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA90F44-76DC-4E19-9153-98C3640871CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A28A5-E5DF-408C-BAB3-DA4FFA4B5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48624" yWindow="2304" windowWidth="24684" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="96">
   <si>
     <t>字节</t>
   </si>
@@ -318,6 +318,133 @@
   </si>
   <si>
     <t>0x08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有按键产生时
+由ESP8266主动下发至STM32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位指令，接收数据方进行复位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA2(高8位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA3(低8位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI SSID指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置ESP8266 WIFI SSD
+数据位用于存储字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI PAW  指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置ESP8266 WIFI PAW
+数据位用于存储字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP升级  
+指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于告知APP Bin文件大小
+单位:字节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bin文件
+指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP开始升级
+指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APP需要升级时用于通知STM32
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于告知STM32即将传输APP文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XE4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询APP是否需要升级
+指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32查询是否需要升级APP
+DATA:1 需要升级
+DATA:0 不需要升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +761,9 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,31 +776,67 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,45 +869,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1023,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1036,20 +1167,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1082,13 +1213,13 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1112,17 +1243,17 @@
       <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1150,11 +1281,11 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1313,8 @@
       <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -1230,13 +1361,13 @@
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1246,25 +1377,25 @@
       <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="28"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1292,11 +1423,11 @@
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,8 +1455,8 @@
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -1386,39 +1517,39 @@
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1446,11 +1577,11 @@
       <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1478,8 +1609,8 @@
       <c r="J17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -1512,13 +1643,13 @@
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1540,15 +1671,15 @@
       <c r="H21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1576,11 +1707,11 @@
       <c r="J22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1608,8 +1739,8 @@
       <c r="J23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -1671,39 +1802,39 @@
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="33"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1731,11 +1862,11 @@
       <c r="J28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1763,8 +1894,8 @@
       <c r="J29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1797,41 +1928,41 @@
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="11"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17" t="s">
+      <c r="J33" s="15"/>
+      <c r="K33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
@@ -1859,11 +1990,11 @@
       <c r="J34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1891,8 +2022,8 @@
       <c r="J35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -1925,39 +2056,39 @@
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="11"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
@@ -1985,11 +2116,11 @@
       <c r="J40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
@@ -2017,8 +2148,8 @@
       <c r="J41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -2051,39 +2182,39 @@
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L44" s="11"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>13</v>
       </c>
@@ -2111,11 +2242,11 @@
       <c r="J46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
@@ -2143,8 +2274,8 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
@@ -2177,39 +2308,39 @@
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="11"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>13</v>
       </c>
@@ -2237,11 +2368,11 @@
       <c r="J52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="5" t="s">
         <v>10</v>
       </c>
@@ -2269,8 +2400,8 @@
       <c r="J53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -2303,13 +2434,13 @@
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="11"/>
+      <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2321,28 +2452,28 @@
       <c r="D57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="40"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="35" t="s">
+      <c r="J57" s="27"/>
+      <c r="K57" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="36"/>
+      <c r="L57" s="26"/>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="39"/>
+      <c r="B58" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -2369,14 +2500,14 @@
       <c r="J58" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="35" t="s">
+      <c r="K58" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="26"/>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="7" t="s">
         <v>18</v>
       </c>
@@ -2401,44 +2532,44 @@
       <c r="J59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="37" t="s">
+      <c r="K59" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L59" s="38"/>
+      <c r="L59" s="32"/>
     </row>
     <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
@@ -2447,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>4</v>
@@ -2467,13 +2598,15 @@
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L68" s="11"/>
+      <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>9</v>
       </c>
@@ -2483,10 +2616,10 @@
       <c r="D69" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -2495,15 +2628,17 @@
       <c r="H69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="I69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="18"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>13</v>
       </c>
@@ -2514,7 +2649,7 @@
         <v>66</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>19</v>
@@ -2531,11 +2666,11 @@
       <c r="J70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="19"/>
-      <c r="L70" s="20"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="19"/>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2681,7 @@
         <v>66</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>19</v>
@@ -2563,11 +2698,1052 @@
       <c r="J71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="21"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="15"/>
+      <c r="K75" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
+      <c r="B77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="20"/>
+      <c r="L77" s="21"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="15"/>
+      <c r="K81" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19"/>
+    </row>
+    <row r="83" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
+      <c r="B83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="20"/>
+      <c r="L83" s="21"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="15"/>
+      <c r="K87" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="14"/>
+      <c r="B88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="18"/>
+      <c r="L88" s="19"/>
+    </row>
+    <row r="89" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
+      <c r="B89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="20"/>
+      <c r="L89" s="21"/>
+    </row>
+    <row r="92" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="15"/>
+      <c r="K93" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="14"/>
+      <c r="B94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="18"/>
+      <c r="L94" s="19"/>
+    </row>
+    <row r="95" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="20"/>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="46">
+        <v>9</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G96" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J96" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K96" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="12"/>
+    </row>
+    <row r="99" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="15"/>
+      <c r="K99" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="14"/>
+      <c r="B100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="18"/>
+      <c r="L100" s="19"/>
+    </row>
+    <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
+      <c r="B101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="20"/>
+      <c r="L101" s="21"/>
+    </row>
+    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E103" s="47">
+        <v>70628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="14"/>
+      <c r="B106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="18"/>
+      <c r="L106" s="19"/>
+    </row>
+    <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="14"/>
+      <c r="B107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="20"/>
+      <c r="L107" s="21"/>
+    </row>
+    <row r="110" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="15"/>
+      <c r="K111" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="14"/>
+      <c r="B112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="18"/>
+      <c r="L112" s="19"/>
+    </row>
+    <row r="113" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="14"/>
+      <c r="B113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" s="20"/>
+      <c r="L113" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="85">
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L107"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="K111:L113"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L89"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L95"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L83"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L53"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L77"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L35"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A62:L63"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L41"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="I69:J69"/>
@@ -2584,47 +3760,6 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A62:L63"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L41"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L35"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
